--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2930.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2930.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.015196905680027</v>
+        <v>1.694027185440063</v>
       </c>
       <c r="B1">
-        <v>1.889267768103974</v>
+        <v>2.003679275512695</v>
       </c>
       <c r="C1">
-        <v>7.438475491041424</v>
+        <v>5.261378288269043</v>
       </c>
       <c r="D1">
-        <v>3.114985570126407</v>
+        <v>1.339415431022644</v>
       </c>
       <c r="E1">
-        <v>1.424738985336256</v>
+        <v>0.7466664910316467</v>
       </c>
     </row>
   </sheetData>
